--- a/biology/Médecine/Cartilage_hyalin/Cartilage_hyalin.xlsx
+++ b/biology/Médecine/Cartilage_hyalin/Cartilage_hyalin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage hyalin contient de l'acide hyaluronique et des glycoaminoglycanes (GAG). On le retrouve au niveau des surfaces articulaires composées de liquide synovial produit par les histiocytes et les fibroblastes. 
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un déficit en histiocytes et fibroblastes favorise donc l'arthrose et également l'apparition de rhumatismes articulaires, les cellules de cartilage (chondrocytes) y sont volumineuses, et la matrice extracellulaire abondante. Les fibres de collagène II et XI forment un réseau à larges mailles, invisible au microscope photonique. La vascularisation et l'innervation sont inexistantes : le chondrocyte se nourrit par imbibition à partir de l'os sous-chondral. Le chondrocyte secrète les molécules de la substance intercellulaire, des cytokines, des enzymes capables de dégrader la matrice. Elles présentent des récepteurs hormonaux à des hormones de croissance hypophysaire, à la thyroxine, à la testostérone et d'autres hormones sexuelles. Chez l'Homme adulte, il existe plusieurs sous-types de cartilages hyalins :
 le « cartilage hyalin articulaire » se trouve à la surface des articulations mobiles de type synoviale (avec une capsule synoviale) en continuité du périoste de l'os. On le retrouve, par exemple, dans le genou ;
